--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nppa</t>
+  </si>
+  <si>
+    <t>Npr2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nppa</t>
-  </si>
-  <si>
-    <t>Npr2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H2">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I2">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J2">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.33435</v>
+        <v>13.18988666666667</v>
       </c>
       <c r="N2">
-        <v>40.00304999999999</v>
+        <v>39.56966</v>
       </c>
       <c r="O2">
-        <v>0.5378090458822617</v>
+        <v>0.6665003854349094</v>
       </c>
       <c r="P2">
-        <v>0.5378090458822616</v>
+        <v>0.6665003854349095</v>
       </c>
       <c r="Q2">
-        <v>0.4502432173166666</v>
+        <v>4.189679567088889</v>
       </c>
       <c r="R2">
-        <v>4.052188955849999</v>
+        <v>37.7071161038</v>
       </c>
       <c r="S2">
-        <v>0.01572854518657119</v>
+        <v>0.2432332431927544</v>
       </c>
       <c r="T2">
-        <v>0.01572854518657119</v>
+        <v>0.2432332431927544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H3">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I3">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J3">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.570336</v>
       </c>
       <c r="O3">
-        <v>0.2227749282644322</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="P3">
-        <v>0.2227749282644322</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="Q3">
-        <v>0.1865028139768889</v>
+        <v>1.754485587164445</v>
       </c>
       <c r="R3">
-        <v>1.678525325792</v>
+        <v>15.79037028448</v>
       </c>
       <c r="S3">
-        <v>0.006515185180446675</v>
+        <v>0.1018572453256777</v>
       </c>
       <c r="T3">
-        <v>0.006515185180446673</v>
+        <v>0.1018572453256777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H4">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I4">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J4">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,42 +685,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.878605666666666</v>
+        <v>1.076434</v>
       </c>
       <c r="N4">
-        <v>17.635817</v>
+        <v>3.229302</v>
       </c>
       <c r="O4">
-        <v>0.2370994690185916</v>
+        <v>0.05439346781563764</v>
       </c>
       <c r="P4">
-        <v>0.2370994690185916</v>
+        <v>0.05439346781563765</v>
       </c>
       <c r="Q4">
-        <v>0.1984950394054444</v>
+        <v>0.3419220838733334</v>
       </c>
       <c r="R4">
-        <v>1.786455354649</v>
+        <v>3.07729875486</v>
       </c>
       <c r="S4">
-        <v>0.006934114888404768</v>
+        <v>0.01985040050151677</v>
       </c>
       <c r="T4">
-        <v>0.006934114888404766</v>
+        <v>0.01985040050151678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,46 +729,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03376566666666667</v>
+        <v>0.07444366666666667</v>
       </c>
       <c r="H5">
-        <v>0.101297</v>
+        <v>0.223331</v>
       </c>
       <c r="I5">
-        <v>0.02924559433686899</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J5">
-        <v>0.02924559433686899</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05743633333333333</v>
+        <v>13.18988666666667</v>
       </c>
       <c r="N5">
-        <v>0.172309</v>
+        <v>39.56966</v>
       </c>
       <c r="O5">
-        <v>0.002316556834714519</v>
+        <v>0.6665003854349094</v>
       </c>
       <c r="P5">
-        <v>0.002316556834714519</v>
+        <v>0.6665003854349095</v>
       </c>
       <c r="Q5">
-        <v>0.001939376085888889</v>
+        <v>0.9819035263844444</v>
       </c>
       <c r="R5">
-        <v>0.017454384773</v>
+        <v>8.83713173746</v>
       </c>
       <c r="S5">
-        <v>6.77490814463621E-05</v>
+        <v>0.05700473637673389</v>
       </c>
       <c r="T5">
-        <v>6.774908144636208E-05</v>
+        <v>0.0570047363767339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.223331</v>
       </c>
       <c r="I6">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J6">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.33435</v>
+        <v>5.523445333333334</v>
       </c>
       <c r="N6">
-        <v>40.00304999999999</v>
+        <v>16.570336</v>
       </c>
       <c r="O6">
-        <v>0.5378090458822617</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="P6">
-        <v>0.5378090458822616</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="Q6">
-        <v>0.9926579066166666</v>
+        <v>0.4111855232462223</v>
       </c>
       <c r="R6">
-        <v>8.93392115955</v>
+        <v>3.700669709216</v>
       </c>
       <c r="S6">
-        <v>0.0346769571168162</v>
+        <v>0.02387151255163434</v>
       </c>
       <c r="T6">
-        <v>0.03467695711681619</v>
+        <v>0.02387151255163434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.223331</v>
       </c>
       <c r="I7">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J7">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,42 +871,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.523445333333334</v>
+        <v>1.076434</v>
       </c>
       <c r="N7">
-        <v>16.570336</v>
+        <v>3.229302</v>
       </c>
       <c r="O7">
-        <v>0.2227749282644322</v>
+        <v>0.05439346781563764</v>
       </c>
       <c r="P7">
-        <v>0.2227749282644322</v>
+        <v>0.05439346781563765</v>
       </c>
       <c r="Q7">
-        <v>0.4111855232462223</v>
+        <v>0.08013369388466668</v>
       </c>
       <c r="R7">
-        <v>3.700669709216</v>
+        <v>0.7212032449620001</v>
       </c>
       <c r="S7">
-        <v>0.01436412550751095</v>
+        <v>0.004652188297570905</v>
       </c>
       <c r="T7">
-        <v>0.01436412550751094</v>
+        <v>0.004652188297570905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07444366666666667</v>
+        <v>0.311492</v>
       </c>
       <c r="H8">
-        <v>0.223331</v>
+        <v>0.934476</v>
       </c>
       <c r="I8">
-        <v>0.06447819608524724</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J8">
-        <v>0.06447819608524723</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,42 +933,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.878605666666666</v>
+        <v>13.18988666666667</v>
       </c>
       <c r="N8">
-        <v>17.635817</v>
+        <v>39.56966</v>
       </c>
       <c r="O8">
-        <v>0.2370994690185916</v>
+        <v>0.6665003854349094</v>
       </c>
       <c r="P8">
-        <v>0.2370994690185916</v>
+        <v>0.6665003854349095</v>
       </c>
       <c r="Q8">
-        <v>0.4376249607141111</v>
+        <v>4.108544177573333</v>
       </c>
       <c r="R8">
-        <v>3.938624646427</v>
+        <v>36.97689759816</v>
       </c>
       <c r="S8">
-        <v>0.01528774605508875</v>
+        <v>0.2385229011215854</v>
       </c>
       <c r="T8">
-        <v>0.01528774605508875</v>
+        <v>0.2385229011215854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,46 +977,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07444366666666667</v>
+        <v>0.311492</v>
       </c>
       <c r="H9">
-        <v>0.223331</v>
+        <v>0.934476</v>
       </c>
       <c r="I9">
-        <v>0.06447819608524724</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J9">
-        <v>0.06447819608524723</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05743633333333333</v>
+        <v>5.523445333333334</v>
       </c>
       <c r="N9">
-        <v>0.172309</v>
+        <v>16.570336</v>
       </c>
       <c r="O9">
-        <v>0.002316556834714519</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="P9">
-        <v>0.002316556834714519</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="Q9">
-        <v>0.004275771253222222</v>
+        <v>1.720509033770667</v>
       </c>
       <c r="R9">
-        <v>0.038481941279</v>
+        <v>15.484581303936</v>
       </c>
       <c r="S9">
-        <v>0.0001493674058313425</v>
+        <v>0.09988472519802917</v>
       </c>
       <c r="T9">
-        <v>0.0001493674058313424</v>
+        <v>0.09988472519802917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.934476</v>
       </c>
       <c r="I10">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J10">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,42 +1057,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.33435</v>
+        <v>1.076434</v>
       </c>
       <c r="N10">
-        <v>40.00304999999999</v>
+        <v>3.229302</v>
       </c>
       <c r="O10">
-        <v>0.5378090458822617</v>
+        <v>0.05439346781563764</v>
       </c>
       <c r="P10">
-        <v>0.5378090458822616</v>
+        <v>0.05439346781563765</v>
       </c>
       <c r="Q10">
-        <v>4.1535433502</v>
+        <v>0.335300579528</v>
       </c>
       <c r="R10">
-        <v>37.38189015179999</v>
+        <v>3.017705215752</v>
       </c>
       <c r="S10">
-        <v>0.1450975645060199</v>
+        <v>0.01946598686058303</v>
       </c>
       <c r="T10">
-        <v>0.1450975645060198</v>
+        <v>0.01946598686058303</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.311492</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H11">
-        <v>0.934476</v>
+        <v>0.248255</v>
       </c>
       <c r="I11">
-        <v>0.2697938341070317</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J11">
-        <v>0.2697938341070316</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,42 +1119,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.523445333333334</v>
+        <v>13.18988666666667</v>
       </c>
       <c r="N11">
-        <v>16.570336</v>
+        <v>39.56966</v>
       </c>
       <c r="O11">
-        <v>0.2227749282644322</v>
+        <v>0.6665003854349094</v>
       </c>
       <c r="P11">
-        <v>0.2227749282644322</v>
+        <v>0.6665003854349095</v>
       </c>
       <c r="Q11">
-        <v>1.720509033770667</v>
+        <v>1.091485104811111</v>
       </c>
       <c r="R11">
-        <v>15.484581303936</v>
+        <v>9.823365943300001</v>
       </c>
       <c r="S11">
-        <v>0.06010330203938011</v>
+        <v>0.06336653142289279</v>
       </c>
       <c r="T11">
-        <v>0.06010330203938009</v>
+        <v>0.06336653142289282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.311492</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H12">
-        <v>0.934476</v>
+        <v>0.248255</v>
       </c>
       <c r="I12">
-        <v>0.2697938341070317</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J12">
-        <v>0.2697938341070316</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,42 +1181,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.878605666666666</v>
+        <v>5.523445333333334</v>
       </c>
       <c r="N12">
-        <v>17.635817</v>
+        <v>16.570336</v>
       </c>
       <c r="O12">
-        <v>0.2370994690185916</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="P12">
-        <v>0.2370994690185916</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="Q12">
-        <v>1.831138636321333</v>
+        <v>0.4570743070755556</v>
       </c>
       <c r="R12">
-        <v>16.480247726892</v>
+        <v>4.113668763680001</v>
       </c>
       <c r="S12">
-        <v>0.0639679748112672</v>
+        <v>0.02653560118615859</v>
       </c>
       <c r="T12">
-        <v>0.06396797481126719</v>
+        <v>0.02653560118615859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,57 +1225,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.311492</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H13">
-        <v>0.934476</v>
+        <v>0.248255</v>
       </c>
       <c r="I13">
-        <v>0.2697938341070317</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J13">
-        <v>0.2697938341070316</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05743633333333333</v>
+        <v>1.076434</v>
       </c>
       <c r="N13">
-        <v>0.172309</v>
+        <v>3.229302</v>
       </c>
       <c r="O13">
-        <v>0.002316556834714519</v>
+        <v>0.05439346781563764</v>
       </c>
       <c r="P13">
-        <v>0.002316556834714519</v>
+        <v>0.05439346781563765</v>
       </c>
       <c r="Q13">
-        <v>0.01789095834266666</v>
+        <v>0.08907670755666668</v>
       </c>
       <c r="R13">
-        <v>0.161018625084</v>
+        <v>0.80169036801</v>
       </c>
       <c r="S13">
-        <v>0.0006249927503644794</v>
+        <v>0.005171377935949174</v>
       </c>
       <c r="T13">
-        <v>0.0006249927503644792</v>
+        <v>0.005171377935949175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08455500000000001</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H14">
-        <v>0.253665</v>
+        <v>0.252198</v>
       </c>
       <c r="I14">
-        <v>0.07323596639053351</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J14">
-        <v>0.07323596639053351</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,39 +1305,39 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.33435</v>
+        <v>13.18988666666667</v>
       </c>
       <c r="N14">
-        <v>40.00304999999999</v>
+        <v>39.56966</v>
       </c>
       <c r="O14">
-        <v>0.5378090458822617</v>
+        <v>0.6665003854349094</v>
       </c>
       <c r="P14">
-        <v>0.5378090458822616</v>
+        <v>0.6665003854349095</v>
       </c>
       <c r="Q14">
-        <v>1.12748596425</v>
+        <v>1.10882101252</v>
       </c>
       <c r="R14">
-        <v>10.14737367825</v>
+        <v>9.979389112679998</v>
       </c>
       <c r="S14">
-        <v>0.03938696520875822</v>
+        <v>0.06437297332094305</v>
       </c>
       <c r="T14">
-        <v>0.03938696520875821</v>
+        <v>0.06437297332094306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08455500000000001</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H15">
-        <v>0.253665</v>
+        <v>0.252198</v>
       </c>
       <c r="I15">
-        <v>0.07323596639053351</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J15">
-        <v>0.07323596639053351</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,36 +1373,36 @@
         <v>16.570336</v>
       </c>
       <c r="O15">
-        <v>0.2227749282644322</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="P15">
-        <v>0.2227749282644322</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="Q15">
-        <v>0.4670349201600001</v>
+        <v>0.464333955392</v>
       </c>
       <c r="R15">
-        <v>4.203314281440001</v>
+        <v>4.179005598528</v>
       </c>
       <c r="S15">
-        <v>0.01631513715902747</v>
+        <v>0.02695706248795321</v>
       </c>
       <c r="T15">
-        <v>0.01631513715902747</v>
+        <v>0.02695706248795321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08455500000000001</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H16">
-        <v>0.253665</v>
+        <v>0.252198</v>
       </c>
       <c r="I16">
-        <v>0.07323596639053351</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J16">
-        <v>0.07323596639053351</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,586 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.878605666666666</v>
+        <v>1.076434</v>
       </c>
       <c r="N16">
-        <v>17.635817</v>
+        <v>3.229302</v>
       </c>
       <c r="O16">
-        <v>0.2370994690185916</v>
+        <v>0.05439346781563764</v>
       </c>
       <c r="P16">
-        <v>0.2370994690185916</v>
+        <v>0.05439346781563765</v>
       </c>
       <c r="Q16">
-        <v>0.497065502145</v>
+        <v>0.09049150064399999</v>
       </c>
       <c r="R16">
-        <v>4.473589519305</v>
+        <v>0.814423505796</v>
       </c>
       <c r="S16">
-        <v>0.01736420874425892</v>
+        <v>0.005253514220017763</v>
       </c>
       <c r="T16">
-        <v>0.01736420874425892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.08455500000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.253665</v>
-      </c>
-      <c r="I17">
-        <v>0.07323596639053351</v>
-      </c>
-      <c r="J17">
-        <v>0.07323596639053351</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05743633333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.172309</v>
-      </c>
-      <c r="O17">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="P17">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="Q17">
-        <v>0.004856529165</v>
-      </c>
-      <c r="R17">
-        <v>0.043708762485</v>
-      </c>
-      <c r="S17">
-        <v>0.0001696552784889132</v>
-      </c>
-      <c r="T17">
-        <v>0.0001696552784889132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.3595576666666667</v>
-      </c>
-      <c r="H18">
-        <v>1.078673</v>
-      </c>
-      <c r="I18">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="J18">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>13.33435</v>
-      </c>
-      <c r="N18">
-        <v>40.00304999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.5378090458822617</v>
-      </c>
-      <c r="P18">
-        <v>0.5378090458822616</v>
-      </c>
-      <c r="Q18">
-        <v>4.794467772516666</v>
-      </c>
-      <c r="R18">
-        <v>43.15020995264999</v>
-      </c>
-      <c r="S18">
-        <v>0.167487260452277</v>
-      </c>
-      <c r="T18">
-        <v>0.1674872604522769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.3595576666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.078673</v>
-      </c>
-      <c r="I19">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="J19">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.523445333333334</v>
-      </c>
-      <c r="N19">
-        <v>16.570336</v>
-      </c>
-      <c r="O19">
-        <v>0.2227749282644322</v>
-      </c>
-      <c r="P19">
-        <v>0.2227749282644322</v>
-      </c>
-      <c r="Q19">
-        <v>1.985997116014222</v>
-      </c>
-      <c r="R19">
-        <v>17.873974044128</v>
-      </c>
-      <c r="S19">
-        <v>0.06937771448461412</v>
-      </c>
-      <c r="T19">
-        <v>0.06937771448461409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.3595576666666667</v>
-      </c>
-      <c r="H20">
-        <v>1.078673</v>
-      </c>
-      <c r="I20">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="J20">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.878605666666666</v>
-      </c>
-      <c r="N20">
-        <v>17.635817</v>
-      </c>
-      <c r="O20">
-        <v>0.2370994690185916</v>
-      </c>
-      <c r="P20">
-        <v>0.2370994690185916</v>
-      </c>
-      <c r="Q20">
-        <v>2.113697736760111</v>
-      </c>
-      <c r="R20">
-        <v>19.023279630841</v>
-      </c>
-      <c r="S20">
-        <v>0.07383873667552086</v>
-      </c>
-      <c r="T20">
-        <v>0.07383873667552084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.3595576666666667</v>
-      </c>
-      <c r="H21">
-        <v>1.078673</v>
-      </c>
-      <c r="I21">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="J21">
-        <v>0.3114251456620974</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.05743633333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.172309</v>
-      </c>
-      <c r="O21">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="P21">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="Q21">
-        <v>0.02065167399522222</v>
-      </c>
-      <c r="R21">
-        <v>0.185865065957</v>
-      </c>
-      <c r="S21">
-        <v>0.0007214340496854966</v>
-      </c>
-      <c r="T21">
-        <v>0.0007214340496854963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.872225</v>
-      </c>
-      <c r="I22">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J22">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>13.33435</v>
-      </c>
-      <c r="N22">
-        <v>40.00304999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.5378090458822617</v>
-      </c>
-      <c r="P22">
-        <v>0.5378090458822616</v>
-      </c>
-      <c r="Q22">
-        <v>3.876851142916666</v>
-      </c>
-      <c r="R22">
-        <v>34.89166028624999</v>
-      </c>
-      <c r="S22">
-        <v>0.1354317534118193</v>
-      </c>
-      <c r="T22">
-        <v>0.1354317534118192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.872225</v>
-      </c>
-      <c r="I23">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J23">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.523445333333334</v>
-      </c>
-      <c r="N23">
-        <v>16.570336</v>
-      </c>
-      <c r="O23">
-        <v>0.2227749282644322</v>
-      </c>
-      <c r="P23">
-        <v>0.2227749282644322</v>
-      </c>
-      <c r="Q23">
-        <v>1.605895701955556</v>
-      </c>
-      <c r="R23">
-        <v>14.4530613176</v>
-      </c>
-      <c r="S23">
-        <v>0.05609946389345293</v>
-      </c>
-      <c r="T23">
-        <v>0.0560994638934529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.872225</v>
-      </c>
-      <c r="I24">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J24">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>5.878605666666666</v>
-      </c>
-      <c r="N24">
-        <v>17.635817</v>
-      </c>
-      <c r="O24">
-        <v>0.2370994690185916</v>
-      </c>
-      <c r="P24">
-        <v>0.2370994690185916</v>
-      </c>
-      <c r="Q24">
-        <v>1.709155609202778</v>
-      </c>
-      <c r="R24">
-        <v>15.382400482825</v>
-      </c>
-      <c r="S24">
-        <v>0.05970668784405115</v>
-      </c>
-      <c r="T24">
-        <v>0.05970668784405114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.872225</v>
-      </c>
-      <c r="I25">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J25">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.05743633333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.172309</v>
-      </c>
-      <c r="O25">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="P25">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="Q25">
-        <v>0.01669913528055555</v>
-      </c>
-      <c r="R25">
-        <v>0.150292217525</v>
-      </c>
-      <c r="S25">
-        <v>0.0005833582688979258</v>
-      </c>
-      <c r="T25">
-        <v>0.0005833582688979256</v>
+        <v>0.005253514220017763</v>
       </c>
     </row>
   </sheetData>
